--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t xml:space="preserve">to LCD Green LED </t>
   </si>
   <si>
-    <t xml:space="preserve">to LCD RED LED </t>
-  </si>
-  <si>
     <t>to LCD blue LED</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">START button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to LCD Red LED </t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -618,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -633,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -663,10 +663,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -727,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -738,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -816,7 +816,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
